--- a/results/FrequencyTables/25808449_T10.xlsx
+++ b/results/FrequencyTables/25808449_T10.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00331093771177416</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00249772494046121</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00063895289174589</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00540205626657889</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0237187058299611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0015102522895812</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.00228474064321258</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.0278234941042074</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00758998586558755</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00234282726973493</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000193622088407846</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00360137084438593</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00205239413712316</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.906674153387418</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.000987472650880012</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000677677309427459</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000387244176815691</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.986117296261158</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000251708714930199</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00305922899684396</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.92200902278932</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00439522140685809</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0251515092841791</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.98</v>
+        <v>0.985962398590431</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.990899761844831</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00253644935814278</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00261389819350592</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0141344124537727</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00141344124537727</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.965806339187175</v>
       </c>
       <c r="I3">
-        <v>0.98</v>
+        <v>0.969949851879102</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000619590682905106</v>
       </c>
       <c r="K3">
-        <v>0.99</v>
+        <v>0.903460026719848</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0.0026332604023467</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000580866265223537</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.995643503010823</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0786299301024261</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0031366778322071</v>
       </c>
       <c r="Q3">
-        <v>0.97</v>
+        <v>0.955641179545763</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000619590682905106</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000406606385656476</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.996940771003156</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.991093383933239</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00346583538250044</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.96150792882452</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.968439599589521</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.00273007144655062</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000193622088407846</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00311731562336631</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.988034154936395</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00472437895715143</v>
       </c>
       <c r="G4">
-        <v>0.87</v>
+        <v>0.816794779948496</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00460820570410672</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.00251708714930199</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00770615911863225</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000619590682905106</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00131663020117335</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000793850562472167</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00487927662787771</v>
       </c>
       <c r="P4">
-        <v>0.99</v>
+        <v>0.862218521888977</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00329157550293337</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00532460743121575</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00809340329544794</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00197494530176002</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00311731562336631</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.0691811721881232</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00931322245241737</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00302050457916239</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00780297016283618</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00617654462021027</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.993629833291382</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00377563072395299</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.957073982999981</v>
       </c>
       <c r="G5">
-        <v>0.13</v>
+        <v>0.178461478885511</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.026603674947238</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00168451216914826</v>
       </c>
       <c r="J5">
-        <v>0.99</v>
+        <v>0.989002265378434</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0.0846709392607509</v>
       </c>
       <c r="L5">
-        <v>0.96</v>
+        <v>0.996514802408659</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.994230061765446</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00147152787189963</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00939067128778051</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.13253431951517</v>
       </c>
       <c r="Q5">
-        <v>0.03</v>
+        <v>0.0396925281236083</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.993668557709063</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00480182779251457</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000832574980153736</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00273007144655062</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00447267024222123</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0241253122156176</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00311731562336631</v>
       </c>
     </row>
   </sheetData>
